--- a/notebook/Retorno_Almox.xlsx
+++ b/notebook/Retorno_Almox.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="211">
   <si>
     <t>UG</t>
   </si>
@@ -76,75 +76,51 @@
     <t>2023</t>
   </si>
   <si>
+    <t>28259514000185</t>
+  </si>
+  <si>
+    <t>19791896006486</t>
+  </si>
+  <si>
+    <t>43928711000133</t>
+  </si>
+  <si>
+    <t>02852112698</t>
+  </si>
+  <si>
+    <t>28320324000126</t>
+  </si>
+  <si>
+    <t>37748531000177</t>
+  </si>
+  <si>
+    <t>20421805000116</t>
+  </si>
+  <si>
     <t>20702528000110</t>
   </si>
   <si>
-    <t>28259514000185</t>
-  </si>
-  <si>
-    <t>19791896006486</t>
-  </si>
-  <si>
-    <t>13754000000129</t>
-  </si>
-  <si>
-    <t>43928711000133</t>
-  </si>
-  <si>
-    <t>02852112698</t>
-  </si>
-  <si>
-    <t>28320324000126</t>
-  </si>
-  <si>
-    <t>37748531000177</t>
-  </si>
-  <si>
-    <t>20421805000116</t>
-  </si>
-  <si>
-    <t>10653955000100</t>
-  </si>
-  <si>
     <t>47078180000198</t>
   </si>
   <si>
     <t>81243735000903</t>
   </si>
   <si>
-    <t>33345691000114</t>
-  </si>
-  <si>
-    <t>20240470000130</t>
-  </si>
-  <si>
     <t>39242061000109</t>
   </si>
   <si>
     <t>08605233000120</t>
   </si>
   <si>
-    <t>10902067000175</t>
-  </si>
-  <si>
-    <t>50317178000139</t>
-  </si>
-  <si>
     <t>45169346000156</t>
   </si>
   <si>
     <t>48489837000172</t>
   </si>
   <si>
-    <t>44429540000160</t>
-  </si>
-  <si>
     <t>06187402000123</t>
   </si>
   <si>
-    <t>01804159000121</t>
-  </si>
-  <si>
     <t>38073038000167</t>
   </si>
   <si>
@@ -160,111 +136,90 @@
     <t>40695811000179</t>
   </si>
   <si>
-    <t>03539933000140</t>
+    <t>29774797000166</t>
+  </si>
+  <si>
+    <t>49720354000108</t>
+  </si>
+  <si>
+    <t>65271868000171</t>
   </si>
   <si>
     <t>65353401000170</t>
   </si>
   <si>
-    <t>29774797000166</t>
-  </si>
-  <si>
     <t>71001465000105</t>
   </si>
   <si>
     <t>33180160000119</t>
   </si>
   <si>
-    <t>20942789000107</t>
-  </si>
-  <si>
-    <t>49720354000108</t>
-  </si>
-  <si>
-    <t>65271868000171</t>
+    <t>31714734000166</t>
   </si>
   <si>
     <t>03716644000179</t>
   </si>
   <si>
-    <t>31714734000166</t>
-  </si>
-  <si>
     <t>19871268000127</t>
   </si>
   <si>
     <t>03541496000107</t>
   </si>
   <si>
+    <t>19612735000102</t>
+  </si>
+  <si>
+    <t>08528006000148</t>
+  </si>
+  <si>
+    <t>14163479000191</t>
+  </si>
+  <si>
+    <t>CLEVER FERREIRA COSTA 01175363693</t>
+  </si>
+  <si>
+    <t>SUPERGASBRAS ENERGIA LTDA</t>
+  </si>
+  <si>
+    <t>GARDEN MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>LUCIANO ALVES DE PAULA</t>
+  </si>
+  <si>
+    <t>FREDERICO DELGADO DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>RAFAEL SOARES AZEVEDO</t>
+  </si>
+  <si>
+    <t>SUPERMERCADO REI DAS CARNES LTDA</t>
+  </si>
+  <si>
     <t>CARLOS GABRIEL DOS REIS</t>
   </si>
   <si>
-    <t>CLEVER FERREIRA COSTA 01175363693</t>
-  </si>
-  <si>
-    <t>SUPERGASBRAS ENERGIA LTDA</t>
-  </si>
-  <si>
-    <t>G4 SERVICO E COMERCIO DE PRODUTOS INDUSTRIAIS, AUTOMOTI</t>
-  </si>
-  <si>
-    <t>GARDEN MATERIAIS DE CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>LUCIANO ALVES DE PAULA</t>
-  </si>
-  <si>
-    <t>FREDERICO DELGADO DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>RAFAEL SOARES AZEVEDO</t>
-  </si>
-  <si>
-    <t>SUPERMERCADO REI DAS CARNES LTDA</t>
-  </si>
-  <si>
-    <t>I&amp;P AGROCOMERCIAL LTDA</t>
-  </si>
-  <si>
     <t>AF DISTRIBUIDORA E SERVICOS LTDA</t>
   </si>
   <si>
     <t>POSITIVO TECNOLOGIA S.A.</t>
   </si>
   <si>
-    <t>CONCRETA BRASIL SOLUCOES EMPRESARIAIS LTDA</t>
-  </si>
-  <si>
-    <t>R.A.C. CUNHA MATERIAIS P/ CONSTRUCAO LTDA</t>
-  </si>
-  <si>
     <t>CENTRAL TINTAS CURVELO LTDA</t>
   </si>
   <si>
     <t>BALCAO DOS PARAFUSOS E FERRAMENTAS LTDA</t>
   </si>
   <si>
-    <t>ESCRIBLU COMERCIO DE MOVEIS LTDA</t>
-  </si>
-  <si>
-    <t>R&amp;D COMERCIO E SUPRIMENTOS DE INFORMATICA LTDA</t>
-  </si>
-  <si>
     <t>FRANCILANDIO THIERES DE CARVALHO SILVA</t>
   </si>
   <si>
     <t>JB LICITACOES LTDA</t>
   </si>
   <si>
-    <t>DISTRIBUIDORA ESPIRITO SANTO LTDA</t>
-  </si>
-  <si>
     <t>R H P COMPUTADORES LTDA</t>
   </si>
   <si>
-    <t>ELETRA TECNOLOGIA E INFORMATICA LTDA</t>
-  </si>
-  <si>
     <t>WR NUTRICAO ANIMAL LTDA</t>
   </si>
   <si>
@@ -280,69 +235,69 @@
     <t>LOTTUS COMERCIO LTDA</t>
   </si>
   <si>
-    <t>INDUSTRIA E COMERCIO DE RODOS RODOBEM LTDA</t>
+    <t>VULPIX ESPACO SAUDE LTDA</t>
+  </si>
+  <si>
+    <t>MAXIMA LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>OXI QUIMICA LTDA</t>
   </si>
   <si>
     <t>COMERCIAL VENER LTDA</t>
   </si>
   <si>
-    <t>VULPIX ESPACO SAUDE LTDA</t>
-  </si>
-  <si>
     <t>MARIELE SERVICOS, INDUSTRIA E COMERCIO DE PRODUTOS ALIM</t>
   </si>
   <si>
     <t>JP COMERCIO DE PRODUTOS ALIMENTICIOS E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>SUKOI ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>MAXIMA LIMPEZA LTDA</t>
-  </si>
-  <si>
-    <t>OXI QUIMICA LTDA</t>
+    <t>ALBA VALERIA FERREIRA TARANTO</t>
   </si>
   <si>
     <t>CASA DO BOI PRODUTOS AGROPECUARIOS LTDA</t>
   </si>
   <si>
-    <t>ALBA VALERIA FERREIRA TARANTO</t>
-  </si>
-  <si>
     <t>RR LEGUMES LTDA</t>
   </si>
   <si>
     <t>CESAR &amp; ROCHA COMERCIO DE PRODUTOS AGROPECUARIOS LTDA</t>
   </si>
   <si>
+    <t>RIBEIRO COMERCIO VAREJISTA E ATACADISTA LTDA</t>
+  </si>
+  <si>
+    <t>CASA MIRANDA MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>EXITUS COMERCIAL PRODUTOS E SERVICOS LTDA</t>
+  </si>
+  <si>
     <t>339030</t>
   </si>
   <si>
     <t>449052</t>
   </si>
   <si>
+    <t>33903021</t>
+  </si>
+  <si>
+    <t>33903004</t>
+  </si>
+  <si>
+    <t>33903024</t>
+  </si>
+  <si>
+    <t>33903096</t>
+  </si>
+  <si>
+    <t>44905224</t>
+  </si>
+  <si>
     <t>33903007</t>
   </si>
   <si>
-    <t>33903021</t>
-  </si>
-  <si>
-    <t>33903004</t>
-  </si>
-  <si>
-    <t>33903039</t>
-  </si>
-  <si>
-    <t>33903024</t>
-  </si>
-  <si>
-    <t>33903096</t>
-  </si>
-  <si>
-    <t>44905224</t>
-  </si>
-  <si>
     <t>44905241</t>
   </si>
   <si>
@@ -352,15 +307,15 @@
     <t>33903025</t>
   </si>
   <si>
+    <t>44905212</t>
+  </si>
+  <si>
     <t>44905242</t>
   </si>
   <si>
     <t>33903017</t>
   </si>
   <si>
-    <t>44905212</t>
-  </si>
-  <si>
     <t>33903006</t>
   </si>
   <si>
@@ -370,36 +325,36 @@
     <t>33903011</t>
   </si>
   <si>
+    <t>33903018</t>
+  </si>
+  <si>
     <t>33903012</t>
   </si>
   <si>
-    <t>33903018</t>
-  </si>
-  <si>
     <t>33903042</t>
   </si>
   <si>
+    <t>33903026</t>
+  </si>
+  <si>
+    <t>MATERIAL DE COPA E COZINHA</t>
+  </si>
+  <si>
+    <t>GAS E OUTROS MATERIAIS ENGARRAFADOS</t>
+  </si>
+  <si>
+    <t>MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+  </si>
+  <si>
+    <t>MATERIAL DE CONSUMO - PAGTO ANTECIPADO</t>
+  </si>
+  <si>
+    <t>EQUIPAMENTO DE PROTECAO, SEGURANCA E  SOCORRO</t>
+  </si>
+  <si>
     <t>GENEROS DE ALIMENTACAO</t>
   </si>
   <si>
-    <t>MATERIAL DE COPA E COZINHA</t>
-  </si>
-  <si>
-    <t>GAS E OUTROS MATERIAIS ENGARRAFADOS</t>
-  </si>
-  <si>
-    <t>MATERIAL P/ MANUTENCAO DE VEICULOS</t>
-  </si>
-  <si>
-    <t>MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
-  </si>
-  <si>
-    <t>MATERIAL DE CONSUMO - PAGTO ANTECIPADO</t>
-  </si>
-  <si>
-    <t>EQUIPAMENTO DE PROTECAO, SEGURANCA E  SOCORRO</t>
-  </si>
-  <si>
     <t>EQUIPAMENTOS DE TIC - COMPUTADORES</t>
   </si>
   <si>
@@ -409,15 +364,15 @@
     <t>MATERIAL P/ MANUTENCAO DE BENS MOVEIS</t>
   </si>
   <si>
+    <t>APARELHOS E UTENSILIOS DOMESTICOS</t>
+  </si>
+  <si>
     <t>MOBILIARIO EM GERAL</t>
   </si>
   <si>
     <t>MATERIAL DE TIC - MATERIAL DE CONSUMO</t>
   </si>
   <si>
-    <t>APARELHOS E UTENSILIOS DOMESTICOS</t>
-  </si>
-  <si>
     <t>ALIMENTOS PARA ANIMAIS</t>
   </si>
   <si>
@@ -427,16 +382,16 @@
     <t>MATERIAL QUIMICO</t>
   </si>
   <si>
+    <t>MATERIAIS E MEDICAMENTOS P/ USO VETERINARIO</t>
+  </si>
+  <si>
     <t>MATERIAL DE COUDELARIA OU DE USO ZOOTECNICO</t>
   </si>
   <si>
-    <t>MATERIAIS E MEDICAMENTOS P/ USO VETERINARIO</t>
-  </si>
-  <si>
     <t>FERRAMENTAS</t>
   </si>
   <si>
-    <t>2023NE000158</t>
+    <t>MATERIAL ELETRICO E ELETRONICO</t>
   </si>
   <si>
     <t>2023NE000465</t>
@@ -445,9 +400,6 @@
     <t>2023NE000559</t>
   </si>
   <si>
-    <t>2023NE001125</t>
-  </si>
-  <si>
     <t>2023NE000647</t>
   </si>
   <si>
@@ -463,9 +415,6 @@
     <t>2023NE000696</t>
   </si>
   <si>
-    <t>2023NE000695</t>
-  </si>
-  <si>
     <t>2023NE000715</t>
   </si>
   <si>
@@ -475,12 +424,6 @@
     <t>2023NE000889</t>
   </si>
   <si>
-    <t>2023NE000890</t>
-  </si>
-  <si>
-    <t>2023NE000894</t>
-  </si>
-  <si>
     <t>2023NE000891</t>
   </si>
   <si>
@@ -490,15 +433,6 @@
     <t>2023NE000948</t>
   </si>
   <si>
-    <t>2023NE001377</t>
-  </si>
-  <si>
-    <t>2023NE001378</t>
-  </si>
-  <si>
-    <t>2023NE000971</t>
-  </si>
-  <si>
     <t>2023NE001405</t>
   </si>
   <si>
@@ -508,15 +442,9 @@
     <t>2023NE001414</t>
   </si>
   <si>
-    <t>2023NE001062</t>
-  </si>
-  <si>
     <t>2023NE001078</t>
   </si>
   <si>
-    <t>2023NE001074</t>
-  </si>
-  <si>
     <t>2023NE001097</t>
   </si>
   <si>
@@ -532,61 +460,64 @@
     <t>2023NE001142</t>
   </si>
   <si>
-    <t>2023NE001138</t>
+    <t>2023NE001158</t>
   </si>
   <si>
     <t>2023NE001157</t>
   </si>
   <si>
+    <t>2023NE001165</t>
+  </si>
+  <si>
+    <t>2023NE001164</t>
+  </si>
+  <si>
+    <t>2023NE001149</t>
+  </si>
+  <si>
+    <t>2023NE001150</t>
+  </si>
+  <si>
     <t>2023NE001151</t>
   </si>
   <si>
-    <t>2023NE001165</t>
-  </si>
-  <si>
-    <t>2023NE001164</t>
-  </si>
-  <si>
     <t>2023NE001155</t>
   </si>
   <si>
     <t>2023NE001154</t>
   </si>
   <si>
-    <t>2023NE001156</t>
-  </si>
-  <si>
-    <t>2023NE001149</t>
-  </si>
-  <si>
-    <t>2023NE001150</t>
-  </si>
-  <si>
-    <t>2023NE001158</t>
+    <t>2023NE001175</t>
+  </si>
+  <si>
+    <t>2023NE001173</t>
   </si>
   <si>
     <t>2023NE001166</t>
   </si>
   <si>
-    <t>2023NE001173</t>
-  </si>
-  <si>
-    <t>2023NE001175</t>
-  </si>
-  <si>
     <t>2023NE001183</t>
   </si>
   <si>
+    <t>2023NE001181</t>
+  </si>
+  <si>
     <t>2023NE001178</t>
   </si>
   <si>
-    <t>2023NE001181</t>
-  </si>
-  <si>
     <t>2023NE001179</t>
   </si>
   <si>
-    <t>E6SUPLJESCO</t>
+    <t>2023NE001587</t>
+  </si>
+  <si>
+    <t>2023NE001593</t>
+  </si>
+  <si>
+    <t>2023NE001594</t>
+  </si>
+  <si>
+    <t>2023NE001201</t>
   </si>
   <si>
     <t>E6SUPLJA5PA</t>
@@ -595,9 +526,6 @@
     <t>C4ENMILCAPE</t>
   </si>
   <si>
-    <t>E3PCFSCMABM</t>
-  </si>
-  <si>
     <t>E6RVSOLOUT4</t>
   </si>
   <si>
@@ -616,25 +544,25 @@
     <t>C1ENCONDETM</t>
   </si>
   <si>
+    <t>K9CCMSIINFO</t>
+  </si>
+  <si>
     <t>E6RVPLJALIE</t>
   </si>
   <si>
-    <t>K9CCMSIINFO</t>
+    <t>E6RVPLJMTOE</t>
+  </si>
+  <si>
+    <t>E6RVPLJFER3</t>
   </si>
   <si>
     <t>E6SUPLJA3RR</t>
   </si>
   <si>
-    <t>E6RVPLJFER3</t>
-  </si>
-  <si>
-    <t>E6RVPLJMTOE</t>
-  </si>
-  <si>
     <t>E6RVPLJMTOC</t>
   </si>
   <si>
-    <t>ESCO - QUANTITATIVO DE RANCHO</t>
+    <t>D8SAFUNADOM</t>
   </si>
   <si>
     <t>A5PA - PASA</t>
@@ -643,9 +571,6 @@
     <t>CAPACITACAO DE PESSOAL</t>
   </si>
   <si>
-    <t>MANUTENCAO DE BENS MOVEIS</t>
-  </si>
-  <si>
     <t>REMONTA E VETERINÁRIA</t>
   </si>
   <si>
@@ -664,19 +589,22 @@
     <t>CONCURSOS AS ESCOLAS MILITARES</t>
   </si>
   <si>
+    <t>MNT DE SISTEMAS DE INFORMACãO E COMUNICACãO</t>
+  </si>
+  <si>
     <t>ALIMENTACAO PARA EQUINOS.</t>
   </si>
   <si>
-    <t>MNT DE SISTEMAS DE INFORMACãO E COMUNICACãO</t>
+    <t>MEDIDAS PROFILÁT SAÚDE EQUINOS</t>
   </si>
   <si>
     <t>A3RR - QUANTITATIVO DE RANCHO</t>
   </si>
   <si>
-    <t>MEDIDAS PROFILÁT SAÚDE EQUINOS</t>
-  </si>
-  <si>
     <t>MEDIDAS PROFILÁT SAÚDE CANINOS.</t>
+  </si>
+  <si>
+    <t>FUNADOM - DPGO</t>
   </si>
   <si>
     <t>160504</t>
@@ -1080,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,46 +1081,46 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2">
-        <v>44972</v>
+        <v>45049</v>
       </c>
       <c r="G2">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="O2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="P2">
-        <v>7484.36</v>
+        <v>3044.75</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>129001.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1209,40 +1137,40 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2">
-        <v>45049</v>
+        <v>45075</v>
       </c>
       <c r="G3">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="M3" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="N3" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="O3" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="P3">
-        <v>3044.75</v>
+        <v>1850.42</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1265,46 +1193,46 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2">
-        <v>45075</v>
+        <v>45084</v>
       </c>
       <c r="G4">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="L4" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="M4" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="N4" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="O4" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="P4">
-        <v>1850.42</v>
+        <v>955</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1321,40 +1249,40 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="G5">
         <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="L5" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="N5" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="O5" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="P5">
-        <v>9999.67</v>
+        <v>5.22</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1377,46 +1305,46 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2">
-        <v>45084</v>
+        <v>45096</v>
       </c>
       <c r="G6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="N6" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="O6" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="P6">
-        <v>955</v>
+        <v>1379.1</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>3830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1424,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1433,46 +1361,46 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="L7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="M7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="N7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="O7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="P7">
-        <v>5.22</v>
+        <v>3254.8</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>12924.4</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1489,46 +1417,46 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M8" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="N8" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="O8" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="P8">
-        <v>1379.1</v>
+        <v>1751.96</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>10634.86</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1545,46 +1473,46 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="G9">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="N9" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="O9" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="P9">
-        <v>7086.64</v>
+        <v>2727.9</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>9092.559999999999</v>
+        <v>91322.07000000001</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1601,46 +1529,46 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="G10">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="M10" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="N10" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="O10" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="P10">
-        <v>3494.67</v>
+        <v>6895.4</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>8892.15</v>
+        <v>154104.08</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1657,46 +1585,46 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2">
-        <v>45097</v>
+        <v>45131</v>
       </c>
       <c r="G11">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="M11" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="N11" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="O11" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="P11">
-        <v>0.01</v>
+        <v>11454</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>14649.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1710,49 +1638,49 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2">
-        <v>45098</v>
+        <v>45132</v>
       </c>
       <c r="G12">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="M12" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="N12" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="O12" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="P12">
-        <v>5066.1</v>
+        <v>552.9</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>88983.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1766,49 +1694,49 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2">
-        <v>45098</v>
+        <v>45138</v>
       </c>
       <c r="G13">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="N13" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="O13" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="P13">
-        <v>7779.8</v>
+        <v>69</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>153219.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1825,40 +1753,40 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F14" s="2">
-        <v>45131</v>
+        <v>45139</v>
       </c>
       <c r="G14">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" t="s">
         <v>115</v>
       </c>
-      <c r="H14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="s">
-        <v>128</v>
-      </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="N14" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="O14" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="P14">
-        <v>11454</v>
+        <v>18.7</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1872,7 +1800,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1881,40 +1809,40 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F15" s="2">
-        <v>45132</v>
+        <v>45148</v>
       </c>
       <c r="G15">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s">
+        <v>189</v>
+      </c>
+      <c r="N15" t="s">
+        <v>201</v>
+      </c>
+      <c r="O15" t="s">
         <v>208</v>
       </c>
-      <c r="N15" t="s">
-        <v>222</v>
-      </c>
-      <c r="O15" t="s">
-        <v>229</v>
-      </c>
       <c r="P15">
-        <v>11469.19</v>
+        <v>3964.69</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1928,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1937,40 +1865,40 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2">
-        <v>45132</v>
+        <v>45148</v>
       </c>
       <c r="G16">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" t="s">
         <v>208</v>
       </c>
-      <c r="N16" t="s">
-        <v>222</v>
-      </c>
-      <c r="O16" t="s">
-        <v>229</v>
-      </c>
       <c r="P16">
-        <v>8846.35</v>
+        <v>2460</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1984,49 +1912,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2">
-        <v>45132</v>
+        <v>45156</v>
       </c>
       <c r="G17">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="P17">
-        <v>552.9</v>
+        <v>21864</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2046,43 +1974,43 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2">
-        <v>45138</v>
+        <v>45166</v>
       </c>
       <c r="G18">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="P18">
-        <v>69</v>
+        <v>2249</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2105,46 +2033,46 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="G19">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
         <v>100</v>
       </c>
-      <c r="I19" t="s">
-        <v>111</v>
-      </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="s">
+        <v>192</v>
+      </c>
+      <c r="N19" t="s">
         <v>197</v>
       </c>
-      <c r="M19" t="s">
-        <v>213</v>
-      </c>
-      <c r="N19" t="s">
-        <v>224</v>
-      </c>
       <c r="O19" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P19">
-        <v>18.7</v>
+        <v>39408.2</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2152,7 +2080,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -2161,46 +2089,46 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F20" s="2">
-        <v>45140</v>
+        <v>45170</v>
       </c>
       <c r="G20">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="N20" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="P20">
-        <v>2707.96</v>
+        <v>22586.32</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>41025.36</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2208,49 +2136,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F21" s="2">
-        <v>45140</v>
+        <v>45173</v>
       </c>
       <c r="G21">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="M21" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="N21" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="P21">
-        <v>3047.67</v>
+        <v>1489</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2270,43 +2198,43 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2">
-        <v>45147</v>
+        <v>45181</v>
       </c>
       <c r="G22">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M22" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="P22">
-        <v>15430</v>
+        <v>541</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2320,49 +2248,49 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2">
-        <v>45148</v>
+        <v>45181</v>
       </c>
       <c r="G23">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s">
         <v>101</v>
       </c>
-      <c r="I23" t="s">
-        <v>114</v>
-      </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="M23" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="P23">
-        <v>3964.69</v>
+        <v>1250</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2376,55 +2304,55 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2">
-        <v>45148</v>
+        <v>45182</v>
       </c>
       <c r="G24">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="P24">
-        <v>2460</v>
+        <v>73616.39999999999</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>44173.8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2432,55 +2360,55 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2">
-        <v>45156</v>
+        <v>45182</v>
       </c>
       <c r="G25">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="K25" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="M25" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="P25">
-        <v>21864</v>
+        <v>9712</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>23114.5</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2497,40 +2425,40 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F26" s="2">
-        <v>45161</v>
+        <v>45182</v>
       </c>
       <c r="G26">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" t="s">
+        <v>188</v>
+      </c>
+      <c r="N26" t="s">
         <v>200</v>
       </c>
-      <c r="M26" t="s">
-        <v>216</v>
-      </c>
-      <c r="N26" t="s">
-        <v>221</v>
-      </c>
       <c r="O26" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="P26">
-        <v>1056.71</v>
+        <v>720</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -2550,43 +2478,43 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F27" s="2">
-        <v>45166</v>
+        <v>45182</v>
       </c>
       <c r="G27">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="O27" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="P27">
-        <v>2249</v>
+        <v>2084.6</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2606,43 +2534,43 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F28" s="2">
-        <v>45166</v>
+        <v>45182</v>
       </c>
       <c r="G28">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K28" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="L28" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="N28" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="O28" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="P28">
-        <v>6396</v>
+        <v>495</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2662,46 +2590,46 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F29" s="2">
-        <v>45170</v>
+        <v>45182</v>
       </c>
       <c r="G29">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" t="s">
         <v>200</v>
       </c>
-      <c r="M29" t="s">
-        <v>216</v>
-      </c>
-      <c r="N29" t="s">
-        <v>221</v>
-      </c>
       <c r="O29" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="P29">
-        <v>39408.2</v>
+        <v>8996</v>
       </c>
       <c r="Q29">
-        <v>18400</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2718,43 +2646,43 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F30" s="2">
-        <v>45170</v>
+        <v>45182</v>
       </c>
       <c r="G30">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s">
+        <v>173</v>
+      </c>
+      <c r="M30" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" t="s">
         <v>200</v>
       </c>
-      <c r="M30" t="s">
-        <v>216</v>
-      </c>
-      <c r="N30" t="s">
-        <v>221</v>
-      </c>
       <c r="O30" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="P30">
-        <v>63611.68</v>
+        <v>885</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2774,49 +2702,49 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2">
-        <v>45173</v>
+        <v>45182</v>
       </c>
       <c r="G31">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K31" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="L31" t="s">
+        <v>172</v>
+      </c>
+      <c r="M31" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" t="s">
         <v>197</v>
       </c>
-      <c r="M31" t="s">
-        <v>213</v>
-      </c>
-      <c r="N31" t="s">
-        <v>224</v>
-      </c>
       <c r="O31" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P31">
-        <v>1489</v>
+        <v>44082.12</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>23823.12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2830,49 +2758,49 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="G32">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="K32" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" t="s">
         <v>197</v>
       </c>
-      <c r="M32" t="s">
-        <v>213</v>
-      </c>
-      <c r="N32" t="s">
-        <v>224</v>
-      </c>
       <c r="O32" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P32">
-        <v>541</v>
+        <v>33204.62</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>79613.75999999999</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2886,43 +2814,43 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="G33">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K33" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L33" t="s">
+        <v>178</v>
+      </c>
+      <c r="M33" t="s">
+        <v>193</v>
+      </c>
+      <c r="N33" t="s">
         <v>197</v>
       </c>
-      <c r="M33" t="s">
-        <v>213</v>
-      </c>
-      <c r="N33" t="s">
-        <v>224</v>
-      </c>
       <c r="O33" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P33">
-        <v>1250</v>
+        <v>292.25</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2942,43 +2870,43 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="G34">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K34" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L34" t="s">
+        <v>179</v>
+      </c>
+      <c r="M34" t="s">
+        <v>185</v>
+      </c>
+      <c r="N34" t="s">
         <v>197</v>
       </c>
-      <c r="M34" t="s">
-        <v>213</v>
-      </c>
-      <c r="N34" t="s">
-        <v>224</v>
-      </c>
       <c r="O34" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P34">
-        <v>598</v>
+        <v>4912</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2998,49 +2926,49 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F35" s="2">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="G35">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L35" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="M35" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="O35" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="P35">
-        <v>32826.5</v>
+        <v>1464.64</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>4035.16</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3054,49 +2982,49 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="G36">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s">
+        <v>172</v>
+      </c>
+      <c r="M36" t="s">
+        <v>187</v>
+      </c>
+      <c r="N36" t="s">
         <v>197</v>
       </c>
-      <c r="M36" t="s">
-        <v>213</v>
-      </c>
-      <c r="N36" t="s">
-        <v>224</v>
-      </c>
       <c r="O36" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P36">
-        <v>885</v>
+        <v>20893.06</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>40485.1</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3110,43 +3038,43 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="G37">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="K37" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M37" t="s">
+        <v>195</v>
+      </c>
+      <c r="N37" t="s">
         <v>197</v>
       </c>
-      <c r="M37" t="s">
-        <v>213</v>
-      </c>
-      <c r="N37" t="s">
-        <v>224</v>
-      </c>
       <c r="O37" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P37">
-        <v>720</v>
+        <v>380</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3166,43 +3094,43 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="G38">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K38" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="L38" t="s">
+        <v>179</v>
+      </c>
+      <c r="M38" t="s">
+        <v>185</v>
+      </c>
+      <c r="N38" t="s">
         <v>197</v>
       </c>
-      <c r="M38" t="s">
-        <v>213</v>
-      </c>
-      <c r="N38" t="s">
-        <v>224</v>
-      </c>
       <c r="O38" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P38">
-        <v>2084.6</v>
+        <v>6194.3</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3222,49 +3150,49 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="G39">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K39" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M39" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="N39" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="O39" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="P39">
-        <v>53474.74</v>
+        <v>202.8</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>15051.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3272,55 +3200,55 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2">
-        <v>45182</v>
+        <v>45190</v>
       </c>
       <c r="G40">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K40" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="L40" t="s">
+        <v>182</v>
+      </c>
+      <c r="M40" t="s">
         <v>196</v>
       </c>
-      <c r="M40" t="s">
-        <v>212</v>
-      </c>
       <c r="N40" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="O40" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="P40">
-        <v>53256.92</v>
+        <v>675</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>59561.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3328,55 +3256,55 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2">
-        <v>45182</v>
+        <v>45194</v>
       </c>
       <c r="G41">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="L41" t="s">
+        <v>182</v>
+      </c>
+      <c r="M41" t="s">
         <v>196</v>
       </c>
-      <c r="M41" t="s">
-        <v>212</v>
-      </c>
       <c r="N41" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="O41" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="P41">
-        <v>13439</v>
+        <v>900</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>86859.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3384,49 +3312,49 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F42" s="2">
-        <v>45182</v>
+        <v>45194</v>
       </c>
       <c r="G42">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="K42" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L42" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="N42" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="O42" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="P42">
-        <v>495</v>
+        <v>744.5</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3446,496 +3374,48 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F43" s="2">
-        <v>45182</v>
+        <v>45196</v>
       </c>
       <c r="G43">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H43" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I43" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J43" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="L43" t="s">
+        <v>179</v>
+      </c>
+      <c r="M43" t="s">
+        <v>185</v>
+      </c>
+      <c r="N43" t="s">
         <v>197</v>
       </c>
-      <c r="M43" t="s">
-        <v>213</v>
-      </c>
-      <c r="N43" t="s">
-        <v>224</v>
-      </c>
       <c r="O43" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P43">
-        <v>8996</v>
+        <v>1445.66</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="2">
-        <v>45182</v>
-      </c>
-      <c r="G44">
-        <v>64</v>
-      </c>
-      <c r="H44" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" t="s">
-        <v>104</v>
-      </c>
-      <c r="J44" t="s">
-        <v>123</v>
-      </c>
-      <c r="K44" t="s">
-        <v>182</v>
-      </c>
-      <c r="L44" t="s">
-        <v>196</v>
-      </c>
-      <c r="M44" t="s">
-        <v>212</v>
-      </c>
-      <c r="N44" t="s">
-        <v>221</v>
-      </c>
-      <c r="O44" t="s">
-        <v>228</v>
-      </c>
-      <c r="P44">
-        <v>117790.2</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="2">
-        <v>45183</v>
-      </c>
-      <c r="G45">
-        <v>63</v>
-      </c>
-      <c r="H45" t="s">
-        <v>100</v>
-      </c>
-      <c r="I45" t="s">
-        <v>102</v>
-      </c>
-      <c r="J45" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" t="s">
-        <v>183</v>
-      </c>
-      <c r="L45" t="s">
-        <v>202</v>
-      </c>
-      <c r="M45" t="s">
-        <v>218</v>
-      </c>
-      <c r="N45" t="s">
-        <v>221</v>
-      </c>
-      <c r="O45" t="s">
-        <v>228</v>
-      </c>
-      <c r="P45">
-        <v>5499.8</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="2">
-        <v>45183</v>
-      </c>
-      <c r="G46">
-        <v>63</v>
-      </c>
-      <c r="H46" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" t="s">
-        <v>118</v>
-      </c>
-      <c r="J46" t="s">
-        <v>137</v>
-      </c>
-      <c r="K46" t="s">
-        <v>184</v>
-      </c>
-      <c r="L46" t="s">
-        <v>203</v>
-      </c>
-      <c r="M46" t="s">
-        <v>210</v>
-      </c>
-      <c r="N46" t="s">
-        <v>221</v>
-      </c>
-      <c r="O46" t="s">
-        <v>228</v>
-      </c>
-      <c r="P46">
-        <v>4912</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="2">
-        <v>45183</v>
-      </c>
-      <c r="G47">
-        <v>63</v>
-      </c>
-      <c r="H47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47" t="s">
-        <v>138</v>
-      </c>
-      <c r="K47" t="s">
-        <v>185</v>
-      </c>
-      <c r="L47" t="s">
-        <v>204</v>
-      </c>
-      <c r="M47" t="s">
-        <v>219</v>
-      </c>
-      <c r="N47" t="s">
-        <v>221</v>
-      </c>
-      <c r="O47" t="s">
-        <v>228</v>
-      </c>
-      <c r="P47">
-        <v>292.25</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="2">
-        <v>45184</v>
-      </c>
-      <c r="G48">
-        <v>62</v>
-      </c>
-      <c r="H48" t="s">
-        <v>100</v>
-      </c>
-      <c r="I48" t="s">
-        <v>102</v>
-      </c>
-      <c r="J48" t="s">
-        <v>121</v>
-      </c>
-      <c r="K48" t="s">
-        <v>186</v>
-      </c>
-      <c r="L48" t="s">
-        <v>196</v>
-      </c>
-      <c r="M48" t="s">
-        <v>212</v>
-      </c>
-      <c r="N48" t="s">
-        <v>221</v>
-      </c>
-      <c r="O48" t="s">
-        <v>228</v>
-      </c>
-      <c r="P48">
-        <v>40228.91</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>20529.33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="2">
-        <v>45184</v>
-      </c>
-      <c r="G49">
-        <v>62</v>
-      </c>
-      <c r="H49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I49" t="s">
-        <v>120</v>
-      </c>
-      <c r="J49" t="s">
-        <v>139</v>
-      </c>
-      <c r="K49" t="s">
-        <v>187</v>
-      </c>
-      <c r="L49" t="s">
-        <v>203</v>
-      </c>
-      <c r="M49" t="s">
-        <v>210</v>
-      </c>
-      <c r="N49" t="s">
-        <v>221</v>
-      </c>
-      <c r="O49" t="s">
-        <v>228</v>
-      </c>
-      <c r="P49">
-        <v>6194.3</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="2">
-        <v>45184</v>
-      </c>
-      <c r="G50">
-        <v>62</v>
-      </c>
-      <c r="H50" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" t="s">
-        <v>119</v>
-      </c>
-      <c r="J50" t="s">
-        <v>138</v>
-      </c>
-      <c r="K50" t="s">
-        <v>188</v>
-      </c>
-      <c r="L50" t="s">
-        <v>205</v>
-      </c>
-      <c r="M50" t="s">
-        <v>220</v>
-      </c>
-      <c r="N50" t="s">
-        <v>221</v>
-      </c>
-      <c r="O50" t="s">
-        <v>228</v>
-      </c>
-      <c r="P50">
-        <v>380</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="2">
-        <v>45184</v>
-      </c>
-      <c r="G51">
-        <v>62</v>
-      </c>
-      <c r="H51" t="s">
-        <v>100</v>
-      </c>
-      <c r="I51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J51" t="s">
-        <v>138</v>
-      </c>
-      <c r="K51" t="s">
-        <v>189</v>
-      </c>
-      <c r="L51" t="s">
-        <v>204</v>
-      </c>
-      <c r="M51" t="s">
-        <v>219</v>
-      </c>
-      <c r="N51" t="s">
-        <v>221</v>
-      </c>
-      <c r="O51" t="s">
-        <v>228</v>
-      </c>
-      <c r="P51">
-        <v>202.8</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
         <v>0</v>
       </c>
     </row>
